--- a/biology/Zoologie/Alcolapia_ndalalani/Alcolapia_ndalalani.xlsx
+++ b/biology/Zoologie/Alcolapia_ndalalani/Alcolapia_ndalalani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcolapia ndalalani est une espèce de poisson qui fait partie de la famille des Cichlidae et de l'ordre des Cichliformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcolapia ndalalani est une espèce de cichlidae endémique de l'Afrique. Elle se rencontre uniquement dans les drainages du lac Natron, principalement dans les lagunes du sud du lac[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alcolapia ndalalani est une espèce de cichlidae endémique de l'Afrique. Elle se rencontre uniquement dans les drainages du lac Natron, principalement dans les lagunes du sud du lac.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Une eau adaptée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de cichlidae vit dans une eau dure et salée, se rapprochant de celle des poissons d'eau de mer. Les lacs salins de cette zone africaine sont également très chauds.
 </t>
